--- a/finalp/src/main/webapp/resources/db/PROJECT_ACCOUNT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PROJECT_ACCOUNT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>PROJECT_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,15 @@
   <si>
     <t>15213872400788</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BANK-NH</t>
+  </si>
+  <si>
+    <t>004-123-242444</t>
+  </si>
+  <si>
+    <t>123-444422211</t>
   </si>
 </sst>
 </file>
@@ -427,7 +436,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -495,10 +504,32 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>15213998388299</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>152140018016610</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>

--- a/finalp/src/main/webapp/resources/db/PROJECT_ACCOUNT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PROJECT_ACCOUNT.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FinalProjectWorkspace\finalp\src\main\webapp\resources\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="28032" windowHeight="12552"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>PROJECT_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,13 +78,14 @@
     <t>004-123-242444</t>
   </si>
   <si>
-    <t>123-444422211</t>
+    <t>15213998388299</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
@@ -142,6 +148,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -189,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,7 +233,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,18 +445,18 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D6"/>
+      <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="19.19921875" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -475,7 +484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -489,7 +498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -503,9 +512,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>15213998388299</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -517,30 +526,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>152140018016610</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -550,7 +548,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -563,7 +561,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/finalp/src/main/webapp/resources/db/PROJECT_ACCOUNT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PROJECT_ACCOUNT.xlsx
@@ -5,24 +5,23 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="CORNSALAD.PROJECT_ACCOUNT" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="SQL" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t xml:space="preserve">PROJECT_ID</t>
   </si>
@@ -70,6 +69,93 @@
   </si>
   <si>
     <t xml:space="preserve">152145922056948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANK-KJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미주</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3000-3857-4525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152148536524733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANK-SCJI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미나</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4534560-456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152148892479134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANK-KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53459-462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152149194727035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4536-7655-455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152149361323936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANK-SUH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-5353-355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152149475182637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANK-GE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">던바튼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3525-87447-66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152149588003738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">간송미술문화재단</t>
+  </si>
+  <si>
+    <t xml:space="preserve">355-125535-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152149749486339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">디디스튜디오</t>
+  </si>
+  <si>
+    <t xml:space="preserve">655-3626-351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152149818635040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">옛날에</t>
+  </si>
+  <si>
+    <t xml:space="preserve">426-151555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select PROJECT_ID PROJECT_ID, BANK_ID BANK_ID, ACCOUNT_NAME ACCOUNT_NAME, ACCOUNT_NUMBER ACCOUNT_NUMBER from (select * from "CORNSALAD"."PROJECT_ACCOUNT")</t>
   </si>
 </sst>
 </file>
@@ -81,9 +167,8 @@
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <sz val="10"/>
+      <name val="돋움"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
@@ -125,7 +210,7 @@
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -150,7 +235,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -168,23 +253,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+    <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5023474178404"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.4272300469484"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.018779342723"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.29"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -198,7 +284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -212,7 +298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
@@ -226,7 +312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>11</v>
       </c>
@@ -240,15 +326,136 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>15</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -261,40 +468,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.29"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.4"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/finalp/src/main/webapp/resources/db/PROJECT_ACCOUNT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PROJECT_ACCOUNT.xlsx
@@ -559,6 +559,50 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>152192366633051</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BANK-KB</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>심심타</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>535-26266-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>152192435440652</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BANK-UR</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>삼일절운동</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3646-856-7</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/finalp/src/main/webapp/resources/db/PROJECT_ACCOUNT.xlsx
+++ b/finalp/src/main/webapp/resources/db/PROJECT_ACCOUNT.xlsx
@@ -389,13 +389,13 @@
     <t xml:space="preserve">46644-373565-357</t>
   </si>
   <si>
-    <t xml:space="preserve">15220381836964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">샘순킴</t>
-  </si>
-  <si>
-    <t xml:space="preserve">098-7896-12345</t>
+    <t xml:space="preserve">152206030799521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">캠벨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">412-312345-1234</t>
   </si>
   <si>
     <t xml:space="preserve">15220362261523</t>
@@ -617,12 +617,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -648,12 +644,13 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H58" activeCellId="0" sqref="H58"/>
+      <selection pane="bottomLeft" activeCell="E62" activeCellId="0" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1333,7 +1330,7 @@
         <v>122</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>123</v>
@@ -1402,7 +1399,7 @@
       <c r="A54" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="0" t="s">
         <v>24</v>
       </c>
       <c r="C54" s="0" t="s">
